--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H2">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1177623333333333</v>
+        <v>0.583904</v>
       </c>
       <c r="N2">
-        <v>0.353287</v>
+        <v>1.751712</v>
       </c>
       <c r="O2">
-        <v>0.05622336632327189</v>
+        <v>0.2526535508491896</v>
       </c>
       <c r="P2">
-        <v>0.0562233663232719</v>
+        <v>0.2526535508491896</v>
       </c>
       <c r="Q2">
-        <v>0.2959048300743333</v>
+        <v>1.160844555530667</v>
       </c>
       <c r="R2">
-        <v>2.663143470669</v>
+        <v>10.447600999776</v>
       </c>
       <c r="S2">
-        <v>0.001231700086957373</v>
+        <v>0.004188414034458257</v>
       </c>
       <c r="T2">
-        <v>0.001231700086957373</v>
+        <v>0.004188414034458256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H3">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9102196666666665</v>
+        <v>0.9102196666666668</v>
       </c>
       <c r="N3">
         <v>2.730659</v>
       </c>
       <c r="O3">
-        <v>0.4345669137583305</v>
+        <v>0.3938493842071626</v>
       </c>
       <c r="P3">
-        <v>0.4345669137583305</v>
+        <v>0.3938493842071626</v>
       </c>
       <c r="Q3">
-        <v>2.287135352803666</v>
+        <v>1.809584356995222</v>
       </c>
       <c r="R3">
-        <v>20.584218175233</v>
+        <v>16.286259212957</v>
       </c>
       <c r="S3">
-        <v>0.009520171780311566</v>
+        <v>0.006529115790106907</v>
       </c>
       <c r="T3">
-        <v>0.009520171780311568</v>
+        <v>0.006529115790106906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H4">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9012129999999999</v>
+        <v>0.8169620000000001</v>
       </c>
       <c r="N4">
-        <v>2.703639</v>
+        <v>2.450886</v>
       </c>
       <c r="O4">
-        <v>0.430266853586134</v>
+        <v>0.3534970649436477</v>
       </c>
       <c r="P4">
-        <v>0.430266853586134</v>
+        <v>0.3534970649436476</v>
       </c>
       <c r="Q4">
-        <v>2.264504040277</v>
+        <v>1.624181183508667</v>
       </c>
       <c r="R4">
-        <v>20.380536362493</v>
+        <v>14.617630651578</v>
       </c>
       <c r="S4">
-        <v>0.009425969230119829</v>
+        <v>0.005860167264514522</v>
       </c>
       <c r="T4">
-        <v>0.00942596923011983</v>
+        <v>0.005860167264514519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.512729</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H5">
-        <v>7.538187</v>
+        <v>278.681984</v>
       </c>
       <c r="I5">
-        <v>0.02190726325199687</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J5">
-        <v>0.02190726325199687</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1653493333333333</v>
+        <v>0.583904</v>
       </c>
       <c r="N5">
-        <v>0.496048</v>
+        <v>1.751712</v>
       </c>
       <c r="O5">
-        <v>0.07894286633226351</v>
+        <v>0.2526535508491896</v>
       </c>
       <c r="P5">
-        <v>0.07894286633226351</v>
+        <v>0.2526535508491896</v>
       </c>
       <c r="Q5">
-        <v>0.4154780649973333</v>
+        <v>54.24117506184533</v>
       </c>
       <c r="R5">
-        <v>3.739302584976</v>
+        <v>488.170575556608</v>
       </c>
       <c r="S5">
-        <v>0.001729422154608097</v>
+        <v>0.1957062190559058</v>
       </c>
       <c r="T5">
-        <v>0.001729422154608097</v>
+        <v>0.1957062190559058</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J6">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1177623333333333</v>
+        <v>0.9102196666666668</v>
       </c>
       <c r="N6">
-        <v>0.353287</v>
+        <v>2.730659</v>
       </c>
       <c r="O6">
-        <v>0.05622336632327189</v>
+        <v>0.3938493842071626</v>
       </c>
       <c r="P6">
-        <v>0.0562233663232719</v>
+        <v>0.3938493842071626</v>
       </c>
       <c r="Q6">
-        <v>10.93941356460089</v>
+        <v>84.55394086082846</v>
       </c>
       <c r="R6">
-        <v>98.45472208140799</v>
+        <v>760.985467747456</v>
       </c>
       <c r="S6">
-        <v>0.04553516965369168</v>
+        <v>0.3050769466790093</v>
       </c>
       <c r="T6">
-        <v>0.0455351696536917</v>
+        <v>0.3050769466790093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J7">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9102196666666665</v>
+        <v>0.8169620000000001</v>
       </c>
       <c r="N7">
-        <v>2.730659</v>
+        <v>2.450886</v>
       </c>
       <c r="O7">
-        <v>0.4345669137583305</v>
+        <v>0.3534970649436477</v>
       </c>
       <c r="P7">
-        <v>0.4345669137583305</v>
+        <v>0.3534970649436476</v>
       </c>
       <c r="Q7">
-        <v>84.55394086082843</v>
+        <v>75.89086367086935</v>
       </c>
       <c r="R7">
-        <v>760.9854677474559</v>
+        <v>683.017773037824</v>
       </c>
       <c r="S7">
-        <v>0.3519547020733287</v>
+        <v>0.2738199158292304</v>
       </c>
       <c r="T7">
-        <v>0.3519547020733288</v>
+        <v>0.2738199158292303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.89399466666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H8">
-        <v>278.681984</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I8">
-        <v>0.8098976036382196</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J8">
-        <v>0.8098976036382197</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.9012129999999999</v>
+        <v>0.583904</v>
       </c>
       <c r="N8">
-        <v>2.703639</v>
+        <v>1.751712</v>
       </c>
       <c r="O8">
-        <v>0.430266853586134</v>
+        <v>0.2526535508491896</v>
       </c>
       <c r="P8">
-        <v>0.430266853586134</v>
+        <v>0.2526535508491896</v>
       </c>
       <c r="Q8">
-        <v>83.71727561553067</v>
+        <v>13.86267798896</v>
       </c>
       <c r="R8">
-        <v>753.455480539776</v>
+        <v>124.76410190064</v>
       </c>
       <c r="S8">
-        <v>0.3484720936443666</v>
+        <v>0.0500175796729244</v>
       </c>
       <c r="T8">
-        <v>0.3484720936443667</v>
+        <v>0.0500175796729244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.89399466666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H9">
-        <v>278.681984</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I9">
-        <v>0.8098976036382196</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J9">
-        <v>0.8098976036382197</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1653493333333333</v>
+        <v>0.9102196666666668</v>
       </c>
       <c r="N9">
-        <v>0.496048</v>
+        <v>2.730659</v>
       </c>
       <c r="O9">
-        <v>0.07894286633226351</v>
+        <v>0.3938493842071626</v>
       </c>
       <c r="P9">
-        <v>0.07894286633226351</v>
+        <v>0.3938493842071626</v>
       </c>
       <c r="Q9">
-        <v>15.35996008880356</v>
+        <v>21.60985733651167</v>
       </c>
       <c r="R9">
-        <v>138.239640799232</v>
+        <v>194.488716028605</v>
       </c>
       <c r="S9">
-        <v>0.0639356382668325</v>
+        <v>0.07796998256111055</v>
       </c>
       <c r="T9">
-        <v>0.06393563826683252</v>
+        <v>0.07796998256111055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H10">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1177623333333333</v>
+        <v>0.8169620000000001</v>
       </c>
       <c r="N10">
-        <v>0.353287</v>
+        <v>2.450886</v>
       </c>
       <c r="O10">
-        <v>0.05622336632327189</v>
+        <v>0.3534970649436477</v>
       </c>
       <c r="P10">
-        <v>0.0562233663232719</v>
+        <v>0.3534970649436476</v>
       </c>
       <c r="Q10">
-        <v>2.082165315161556</v>
+        <v>19.39579303313</v>
       </c>
       <c r="R10">
-        <v>18.739487836454</v>
+        <v>174.56213729817</v>
       </c>
       <c r="S10">
-        <v>0.008666986608835915</v>
+        <v>0.06998147285298896</v>
       </c>
       <c r="T10">
-        <v>0.008666986608835915</v>
+        <v>0.06998147285298896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.68108066666667</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H11">
-        <v>53.04324200000001</v>
+        <v>3.903614</v>
       </c>
       <c r="I11">
-        <v>0.154152751349015</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J11">
-        <v>0.154152751349015</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.9102196666666665</v>
+        <v>0.583904</v>
       </c>
       <c r="N11">
-        <v>2.730659</v>
+        <v>1.751712</v>
       </c>
       <c r="O11">
-        <v>0.4345669137583305</v>
+        <v>0.2526535508491896</v>
       </c>
       <c r="P11">
-        <v>0.4345669137583305</v>
+        <v>0.2526535508491896</v>
       </c>
       <c r="Q11">
-        <v>16.09366735071978</v>
+        <v>0.7597786096853334</v>
       </c>
       <c r="R11">
-        <v>144.843006156478</v>
+        <v>6.838007487168</v>
       </c>
       <c r="S11">
-        <v>0.06698968540109676</v>
+        <v>0.002741338085901171</v>
       </c>
       <c r="T11">
-        <v>0.06698968540109676</v>
+        <v>0.00274133808590117</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.68108066666667</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H12">
-        <v>53.04324200000001</v>
+        <v>3.903614</v>
       </c>
       <c r="I12">
-        <v>0.154152751349015</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J12">
-        <v>0.154152751349015</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9012129999999999</v>
+        <v>0.9102196666666668</v>
       </c>
       <c r="N12">
-        <v>2.703639</v>
+        <v>2.730659</v>
       </c>
       <c r="O12">
-        <v>0.430266853586134</v>
+        <v>0.3938493842071626</v>
       </c>
       <c r="P12">
-        <v>0.430266853586134</v>
+        <v>0.3938493842071626</v>
       </c>
       <c r="Q12">
-        <v>15.93441975084867</v>
+        <v>1.184382077958445</v>
       </c>
       <c r="R12">
-        <v>143.409777757638</v>
+        <v>10.659438701626</v>
       </c>
       <c r="S12">
-        <v>0.06632681929458635</v>
+        <v>0.004273339176935937</v>
       </c>
       <c r="T12">
-        <v>0.06632681929458635</v>
+        <v>0.004273339176935937</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.68108066666667</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H13">
-        <v>53.04324200000001</v>
+        <v>3.903614</v>
       </c>
       <c r="I13">
-        <v>0.154152751349015</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J13">
-        <v>0.154152751349015</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1653493333333333</v>
+        <v>0.8169620000000001</v>
       </c>
       <c r="N13">
-        <v>0.496048</v>
+        <v>2.450886</v>
       </c>
       <c r="O13">
-        <v>0.07894286633226351</v>
+        <v>0.3534970649436477</v>
       </c>
       <c r="P13">
-        <v>0.07894286633226351</v>
+        <v>0.3534970649436476</v>
       </c>
       <c r="Q13">
-        <v>2.923554900846223</v>
+        <v>1.063034766889334</v>
       </c>
       <c r="R13">
-        <v>26.311994107616</v>
+        <v>9.567312902004002</v>
       </c>
       <c r="S13">
-        <v>0.01216926004449594</v>
+        <v>0.003835508996913863</v>
       </c>
       <c r="T13">
-        <v>0.01216926004449594</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.610639333333333</v>
-      </c>
-      <c r="H14">
-        <v>4.831917999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.0140423817607685</v>
-      </c>
-      <c r="J14">
-        <v>0.0140423817607685</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.1177623333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.353287</v>
-      </c>
-      <c r="O14">
-        <v>0.05622336632327189</v>
-      </c>
-      <c r="P14">
-        <v>0.0562233663232719</v>
-      </c>
-      <c r="Q14">
-        <v>0.1896726460517777</v>
-      </c>
-      <c r="R14">
-        <v>1.707053814465999</v>
-      </c>
-      <c r="S14">
-        <v>0.0007895099737869189</v>
-      </c>
-      <c r="T14">
-        <v>0.0007895099737869191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.610639333333333</v>
-      </c>
-      <c r="H15">
-        <v>4.831917999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.0140423817607685</v>
-      </c>
-      <c r="J15">
-        <v>0.0140423817607685</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.9102196666666665</v>
-      </c>
-      <c r="N15">
-        <v>2.730659</v>
-      </c>
-      <c r="O15">
-        <v>0.4345669137583305</v>
-      </c>
-      <c r="P15">
-        <v>0.4345669137583305</v>
-      </c>
-      <c r="Q15">
-        <v>1.466035597106888</v>
-      </c>
-      <c r="R15">
-        <v>13.194320373962</v>
-      </c>
-      <c r="S15">
-        <v>0.006102354503593437</v>
-      </c>
-      <c r="T15">
-        <v>0.006102354503593437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.610639333333333</v>
-      </c>
-      <c r="H16">
-        <v>4.831917999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.0140423817607685</v>
-      </c>
-      <c r="J16">
-        <v>0.0140423817607685</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.9012129999999999</v>
-      </c>
-      <c r="N16">
-        <v>2.703639</v>
-      </c>
-      <c r="O16">
-        <v>0.430266853586134</v>
-      </c>
-      <c r="P16">
-        <v>0.430266853586134</v>
-      </c>
-      <c r="Q16">
-        <v>1.451529105511333</v>
-      </c>
-      <c r="R16">
-        <v>13.063761949602</v>
-      </c>
-      <c r="S16">
-        <v>0.006041971417061177</v>
-      </c>
-      <c r="T16">
-        <v>0.006041971417061177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.610639333333333</v>
-      </c>
-      <c r="H17">
-        <v>4.831917999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.0140423817607685</v>
-      </c>
-      <c r="J17">
-        <v>0.0140423817607685</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.1653493333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.496048</v>
-      </c>
-      <c r="O17">
-        <v>0.07894286633226351</v>
-      </c>
-      <c r="P17">
-        <v>0.07894286633226351</v>
-      </c>
-      <c r="Q17">
-        <v>0.2663181400071111</v>
-      </c>
-      <c r="R17">
-        <v>2.396863260063999</v>
-      </c>
-      <c r="S17">
-        <v>0.001108545866326962</v>
-      </c>
-      <c r="T17">
-        <v>0.001108545866326963</v>
+        <v>0.003835508996913862</v>
       </c>
     </row>
   </sheetData>
